--- a/20190506-153727.xlsx
+++ b/20190506-153727.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Java\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Java\Desktop\Toy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF6F67-FFF7-45AC-9712-DEB2A50DFA13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404CC37B-19E5-4B2D-B7FD-FF913E20C13C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="3" r:id="rId1"/>
@@ -27,14 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>姓名</t>
@@ -47,6 +48,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>身份证号</t>
@@ -59,6 +61,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>收入</t>
@@ -71,6 +74,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>费用</t>
@@ -83,6 +87,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>专项扣除</t>
@@ -95,6 +100,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>专项附加扣除</t>
@@ -107,6 +113,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他扣除</t>
@@ -119,6 +126,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>税款计算</t>
@@ -131,6 +139,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>固定工资</t>
@@ -143,6 +152,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>补贴</t>
@@ -155,6 +165,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绩效等</t>
@@ -167,6 +178,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>收入小计</t>
@@ -179,6 +191,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>基本养老保险</t>
@@ -201,6 +214,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>基本医疗保险</t>
@@ -223,6 +237,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>失业保险</t>
@@ -245,6 +260,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>住房公积金</t>
@@ -257,6 +273,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>专项扣除小计</t>
@@ -269,6 +286,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>赡养老人</t>
@@ -291,6 +309,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>子女教育</t>
@@ -313,6 +332,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>继续教育</t>
@@ -335,6 +355,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>住房租金</t>
@@ -357,6 +378,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>住房贷款利息</t>
@@ -369,6 +391,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>专项附加小计</t>
@@ -381,6 +404,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>年金</t>
@@ -403,6 +427,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>商业健康保险</t>
@@ -425,6 +450,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>税延养老保险</t>
@@ -437,6 +463,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他扣除小计</t>
@@ -449,6 +476,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当月应纳税所得额</t>
@@ -461,6 +489,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>累计应纳税所得额</t>
@@ -473,6 +502,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>累计应纳税额</t>
@@ -485,6 +515,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前期累计已缴税额</t>
@@ -497,6 +528,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>本月应补税额</t>
@@ -537,6 +569,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>上月</t>
@@ -557,6 +590,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>列，</t>
@@ -577,6 +611,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月本列等于</t>
@@ -597,6 +632,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>列</t>
@@ -619,6 +655,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>预扣税率</t>
@@ -639,6 +676,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>速算扣除数</t>
@@ -661,6 +699,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>上月</t>
@@ -681,6 +720,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>列，</t>
@@ -701,6 +741,7 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月本列为零</t>
@@ -883,6 +924,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>合计</t>
@@ -906,6 +948,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、本表适用于每月单位支付工资时扣缴税款的计算；</t>
@@ -926,6 +969,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、本表未考虑非居民个人的工资计算；</t>
@@ -946,6 +990,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、本表未考虑各种免税收入、捐赠扣除、减免税的计算；</t>
@@ -956,14 +1001,20 @@
   </si>
   <si>
     <t>https://gzt.mayihr.com/index/index_new?from=gzt_mubanzw</t>
+  </si>
+  <si>
+    <t>0.001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -977,6 +1028,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1002,12 +1054,14 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1015,6 +1069,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1029,6 +1084,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1037,12 +1093,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1050,6 +1108,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1057,6 +1116,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1064,6 +1124,7 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1071,6 +1132,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1126,7 +1188,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1173,10 +1235,16 @@
     <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1499,7 +1567,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1530,53 +1598,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
     </row>
     <row r="3" spans="2:28" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1657,7 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1737,6 +1805,9 @@
     <row r="5" spans="2:28" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1.0000000000000001E-15</v>
       </c>
       <c r="D5" s="13">
         <v>30000</v>
@@ -1800,6 +1871,9 @@
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C6" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="D6" s="13">
         <v>30000</v>
       </c>
@@ -1862,6 +1936,9 @@
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C7" s="19">
+        <v>1E-8</v>
+      </c>
       <c r="D7" s="13">
         <v>30000</v>
       </c>
@@ -1924,6 +2001,9 @@
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C8" s="16">
+        <v>9.9999999999999998E-13</v>
+      </c>
       <c r="D8" s="13">
         <v>30000</v>
       </c>
@@ -2616,14 +2696,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AB2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
